--- a/out/bed_load.xlsx
+++ b/out/bed_load.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -372,475 +372,1319 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ssd</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>bsd</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>D50_A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bsd_B</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>D50_B</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="B2">
+        <v>0.3847565512947038</v>
+      </c>
+      <c r="C2">
         <v>0.08491108641975309</v>
       </c>
-      <c r="C2" s="2">
-        <v>42539</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" s="2">
+        <v>42539.66666666667</v>
+      </c>
+      <c r="F2">
+        <v>1.382034632034632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="B3">
+        <v>0.3553854273877706</v>
+      </c>
+      <c r="C3">
         <v>0.1352675</v>
       </c>
-      <c r="C3" s="2">
-        <v>42540</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" s="2">
+        <v>42540.79166666667</v>
+      </c>
+      <c r="F3">
+        <v>1.869042553191489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="B4">
+        <v>0.3284915134476886</v>
+      </c>
+      <c r="C4">
         <v>0.03187286666666667</v>
       </c>
-      <c r="C4" s="2">
-        <v>42541</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2">
+        <v>42541.5</v>
+      </c>
+      <c r="F4">
+        <v>2.520964125560538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="B5">
+        <v>0.3334114570109209</v>
+      </c>
+      <c r="C5">
         <v>0.01911</v>
       </c>
-      <c r="C5" s="2">
-        <v>42541</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" s="2">
+        <v>42541.75</v>
+      </c>
+      <c r="F5">
+        <v>3.269444444444444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="B6">
+        <v>0.422320889131</v>
+      </c>
+      <c r="C6">
         <v>0.09859999999999999</v>
       </c>
-      <c r="C6" s="2">
-        <v>42542</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" s="2">
+        <v>42542.75</v>
+      </c>
+      <c r="F6">
+        <v>2.984655172413794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="B7">
+        <v>1.986803407978141</v>
+      </c>
+      <c r="C7">
         <v>0.052</v>
       </c>
-      <c r="C7" s="2">
-        <v>42543</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2">
+        <v>42543.58333333333</v>
+      </c>
+      <c r="F7">
+        <v>2.918404735062006</v>
+      </c>
+      <c r="G7">
+        <v>0.01008</v>
+      </c>
+      <c r="H7">
+        <v>3.102363782051282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="B8">
+        <v>1.986803407978141</v>
+      </c>
+      <c r="C8">
         <v>0.01008</v>
       </c>
-      <c r="C8" s="2">
-        <v>42543</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" s="2">
+        <v>42543.58333333333</v>
+      </c>
+      <c r="F8">
+        <v>2.918404735062006</v>
+      </c>
+      <c r="G8">
+        <v>0.01008</v>
+      </c>
+      <c r="H8">
+        <v>3.102363782051282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="B9">
+        <v>2.209895716032906</v>
+      </c>
+      <c r="C9">
         <v>0.212908</v>
       </c>
-      <c r="C9" s="2">
-        <v>42545</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E9" s="2">
+        <v>42545.66666666667</v>
+      </c>
+      <c r="F9">
+        <v>2.3122005748962</v>
+      </c>
+      <c r="G9">
+        <v>0.03982666666666666</v>
+      </c>
+      <c r="H9">
+        <v>8.658980582524272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="B10">
+        <v>2.209895716032906</v>
+      </c>
+      <c r="C10">
         <v>0.03982666666666666</v>
       </c>
-      <c r="C10" s="2">
-        <v>42545</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2">
+        <v>42545.66666666667</v>
+      </c>
+      <c r="F10">
+        <v>2.3122005748962</v>
+      </c>
+      <c r="G10">
+        <v>0.03982666666666666</v>
+      </c>
+      <c r="H10">
+        <v>8.658980582524272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="B11">
+        <v>2.820324967546291</v>
+      </c>
+      <c r="C11">
         <v>0.5366057142857144</v>
       </c>
-      <c r="C11" s="2">
-        <v>42546</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E11" s="2">
+        <v>42546.83333333333</v>
+      </c>
+      <c r="F11">
+        <v>2.213748322790876</v>
+      </c>
+      <c r="G11">
+        <v>0.0592</v>
+      </c>
+      <c r="H11">
+        <v>5.32311776061776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="B12">
+        <v>2.820324967546291</v>
+      </c>
+      <c r="C12">
         <v>0.0592</v>
       </c>
-      <c r="C12" s="2">
-        <v>42546</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E12" s="2">
+        <v>42546.83333333333</v>
+      </c>
+      <c r="F12">
+        <v>2.213748322790876</v>
+      </c>
+      <c r="G12">
+        <v>0.0592</v>
+      </c>
+      <c r="H12">
+        <v>5.32311776061776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="B13">
+        <v>0.7001227092786767</v>
+      </c>
+      <c r="C13">
         <v>0.02544</v>
       </c>
-      <c r="C13" s="2">
-        <v>42549</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2">
+        <v>42549.54166666667</v>
+      </c>
+      <c r="F13">
+        <v>2.254774305555555</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="B14">
+        <v>9.546906027347813</v>
+      </c>
+      <c r="C14">
         <v>0.09000000000000001</v>
       </c>
-      <c r="C14" s="2">
-        <v>42551</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E14" s="2">
+        <v>42551.70833333333</v>
+      </c>
+      <c r="F14">
+        <v>6.7212</v>
+      </c>
+      <c r="G14">
+        <v>0.019588</v>
+      </c>
+      <c r="H14">
+        <v>2.290160642570281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="B15">
+        <v>9.546906027347813</v>
+      </c>
+      <c r="C15">
         <v>0.019588</v>
       </c>
-      <c r="C15" s="2">
-        <v>42551</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E15" s="2">
+        <v>42551.70833333333</v>
+      </c>
+      <c r="F15">
+        <v>6.7212</v>
+      </c>
+      <c r="G15">
+        <v>0.019588</v>
+      </c>
+      <c r="H15">
+        <v>2.290160642570281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3.67</v>
+        <v>2.46</v>
       </c>
       <c r="B16">
+        <v>5.04458251886067</v>
+      </c>
+      <c r="C16">
         <v>0.05759333333333332</v>
       </c>
-      <c r="C16" s="2">
-        <v>42552</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2">
+        <v>42552.54166666667</v>
+      </c>
+      <c r="F16">
+        <v>3.16579754601227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2.87</v>
+        <v>2.57</v>
       </c>
       <c r="B17">
+        <v>4.28998245139487</v>
+      </c>
+      <c r="C17">
         <v>0.0501</v>
       </c>
-      <c r="C17" s="2">
-        <v>42556</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E17" s="2">
+        <v>42556.66666666667</v>
+      </c>
+      <c r="F17">
+        <v>1.486826347305389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.556033472522756</v>
+        <v>1.759094853199993</v>
       </c>
       <c r="B18">
-        <v>0.1153777777777778</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42942</v>
+        <v>0.6613127284255759</v>
+      </c>
+      <c r="C18">
+        <v>0.1785</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ВН1</t>
+        </is>
+      </c>
+      <c r="E18" s="2">
+        <v>42915.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1.532331553085258</v>
+        <v>1.547419013399996</v>
       </c>
       <c r="B19">
-        <v>0.04682222222222222</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42943</v>
+        <v>0.3327574044595761</v>
+      </c>
+      <c r="C19">
+        <v>0.2810666666666667</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ВН2</t>
+        </is>
+      </c>
+      <c r="E19" s="2">
+        <v>42916.41666666667</v>
+      </c>
+      <c r="F19">
+        <v>3.072463768115942</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1.619269622461817</v>
+        <v>1.05515617679999</v>
       </c>
       <c r="B20">
-        <v>0.07728888888888889</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42945</v>
+        <v>0.2253300833517193</v>
+      </c>
+      <c r="C20">
+        <v>0.05557777777777777</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ВН3</t>
+        </is>
+      </c>
+      <c r="E20" s="2">
+        <v>42917.41666666667</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1.707209033236623</v>
+        <v>1.724490880200004</v>
       </c>
       <c r="B21">
-        <v>0.1005333333333333</v>
-      </c>
-      <c r="C21" s="2">
-        <v>42946</v>
+        <v>0.4623805277555425</v>
+      </c>
+      <c r="C21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ВН4</t>
+        </is>
+      </c>
+      <c r="E21" s="2">
+        <v>42922.75</v>
+      </c>
+      <c r="F21">
+        <v>0.6960000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1.663796296226857</v>
+        <v>1.341610311600003</v>
       </c>
       <c r="B22">
-        <v>1.9328</v>
-      </c>
-      <c r="C22" s="2">
-        <v>42947</v>
+        <v>0.2867397301277582</v>
+      </c>
+      <c r="C22">
+        <v>0.01776666666666667</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ВН5</t>
+        </is>
+      </c>
+      <c r="E22" s="2">
+        <v>42927.375</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1.944520729091502</v>
+        <v>1.598238723599996</v>
       </c>
       <c r="B23">
-        <v>0.4533333333333333</v>
-      </c>
-      <c r="C23" s="2">
-        <v>42949</v>
+        <v>0.3524107288503471</v>
+      </c>
+      <c r="C23">
+        <v>0.0728</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ВН6</t>
+        </is>
+      </c>
+      <c r="E23" s="2">
+        <v>42928.75</v>
+      </c>
+      <c r="F23">
+        <v>1.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.561334509886203</v>
+        <v>1.518392082599994</v>
       </c>
       <c r="B24">
-        <v>0.2224444444444445</v>
-      </c>
-      <c r="C24" s="2">
-        <v>42953</v>
+        <v>0.3670622472673739</v>
+      </c>
+      <c r="C24">
+        <v>0.1194666666666667</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ВН9</t>
+        </is>
+      </c>
+      <c r="E24" s="2">
+        <v>42931.58333333333</v>
+      </c>
+      <c r="F24">
+        <v>1.098214285714286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1.890653980931781</v>
+        <v>1.516068905399995</v>
       </c>
       <c r="B25">
-        <v>0.338</v>
-      </c>
-      <c r="C25" s="2">
-        <v>42954</v>
+        <v>0.3540608360483691</v>
+      </c>
+      <c r="C25">
+        <v>0.3546666666666667</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ВН10</t>
+        </is>
+      </c>
+      <c r="E25" s="2">
+        <v>42931.79166666667</v>
+      </c>
+      <c r="F25">
+        <v>1.296052631578947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1.747276036529773</v>
+        <v>1.382568010199989</v>
       </c>
       <c r="B26">
-        <v>0.2332444444444444</v>
-      </c>
-      <c r="C26" s="2">
-        <v>42956</v>
+        <v>0.2962024627037391</v>
+      </c>
+      <c r="C26">
+        <v>0.7404222222222222</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ВН11</t>
+        </is>
+      </c>
+      <c r="E26" s="2">
+        <v>42932.41666666667</v>
+      </c>
+      <c r="F26">
+        <v>14.12953570035115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1.889448440173708</v>
+        <v>1.397288415599998</v>
       </c>
       <c r="B27">
-        <v>0.4380444444444445</v>
-      </c>
-      <c r="C27" s="2">
-        <v>42957</v>
+        <v>0.3237142462064157</v>
+      </c>
+      <c r="C27">
+        <v>0.06200000000000001</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ВН12</t>
+        </is>
+      </c>
+      <c r="E27" s="2">
+        <v>42933.45833333333</v>
+      </c>
+      <c r="F27">
+        <v>1.363333333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.83064685086389</v>
+        <v>1.225799038800006</v>
       </c>
       <c r="B28">
-        <v>0.2204444444444445</v>
-      </c>
-      <c r="C28" s="2">
-        <v>42958</v>
+        <v>0.3464365901938896</v>
+      </c>
+      <c r="C28">
+        <v>0.03306666666666667</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ВН13</t>
+        </is>
+      </c>
+      <c r="E28" s="2">
+        <v>42935.29166666667</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1.472223213502153</v>
+        <v>1.554329741400007</v>
       </c>
       <c r="B29">
-        <v>0.09677777777777778</v>
-      </c>
-      <c r="C29" s="2">
-        <v>42960</v>
+        <v>0.4960832136665416</v>
+      </c>
+      <c r="C29">
+        <v>0.4136888888888889</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ВН14</t>
+        </is>
+      </c>
+      <c r="E29" s="2">
+        <v>42935.70833333333</v>
+      </c>
+      <c r="F29">
+        <v>1.549231843575419</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1.555256639999991</v>
+        <v>1.729015331271227</v>
       </c>
       <c r="B30">
-        <v>0.1137777777777778</v>
-      </c>
-      <c r="C30" s="2">
-        <v>42963</v>
+        <v>0.6616395229248515</v>
+      </c>
+      <c r="C30">
+        <v>0.1153777777777778</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ВЛ20</t>
+        </is>
+      </c>
+      <c r="E30" s="2">
+        <v>42942.66666666667</v>
+      </c>
+      <c r="F30">
+        <v>1.347457627118644</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1.689802880000004</v>
+        <v>1.77094279453177</v>
       </c>
       <c r="B31">
-        <v>0.1450666666666667</v>
-      </c>
-      <c r="C31" s="2">
-        <v>42965</v>
+        <v>0.4544933162852903</v>
+      </c>
+      <c r="C31">
+        <v>0.04682222222222222</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ВЛ22</t>
+        </is>
+      </c>
+      <c r="E31" s="2">
+        <v>42943.79166666667</v>
+      </c>
+      <c r="F31">
+        <v>1.076530612244898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1.509825759999996</v>
+        <v>1.743641639278925</v>
       </c>
       <c r="B32">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C32" s="2">
-        <v>42967</v>
+        <v>0.5238613821004301</v>
+      </c>
+      <c r="C32">
+        <v>0.07728888888888889</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ВЛ24</t>
+        </is>
+      </c>
+      <c r="E32" s="2">
+        <v>42945.79166666667</v>
+      </c>
+      <c r="F32">
+        <v>1.428191489361702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1.43600224</v>
+        <v>1.804371831661249</v>
       </c>
       <c r="B33">
-        <v>1.717333333333333</v>
-      </c>
-      <c r="C33" s="2">
-        <v>42970</v>
+        <v>0.6681084012754901</v>
+      </c>
+      <c r="C33">
+        <v>0.1005333333333333</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ВЛ26</t>
+        </is>
+      </c>
+      <c r="E33" s="2">
+        <v>42946.75</v>
+      </c>
+      <c r="F33">
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1.4562294</v>
+        <v>2.204039871754699</v>
       </c>
       <c r="B34">
-        <v>0.03</v>
-      </c>
-      <c r="C34" s="2">
-        <v>45149</v>
+        <v>0.6017182430789293</v>
+      </c>
+      <c r="C34">
+        <v>1.9328</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ВЛ28</t>
+        </is>
+      </c>
+      <c r="E34" s="2">
+        <v>42947.70833333333</v>
+      </c>
+      <c r="F34">
+        <v>2.133002207505519</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1.4511657</v>
+        <v>2.063020294670971</v>
       </c>
       <c r="B35">
-        <v>0.02</v>
-      </c>
-      <c r="C35" s="2">
-        <v>45150</v>
+        <v>0.4939992645992494</v>
+      </c>
+      <c r="C35">
+        <v>0.4533333333333333</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ВЛ29</t>
+        </is>
+      </c>
+      <c r="E35" s="2">
+        <v>42949.75</v>
+      </c>
+      <c r="F35">
+        <v>1.035</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1.3547158</v>
+        <v>2.01690348769517</v>
       </c>
       <c r="B36">
-        <v>0.05</v>
-      </c>
-      <c r="C36" s="2">
-        <v>45152</v>
+        <v>0.5373904543568143</v>
+      </c>
+      <c r="C36">
+        <v>0.2224444444444445</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ВЛ30</t>
+        </is>
+      </c>
+      <c r="E36" s="2">
+        <v>42953.79166666667</v>
+      </c>
+      <c r="F36">
+        <v>1.146103896103896</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1.1954099</v>
+        <v>2.11364975079834</v>
       </c>
       <c r="B37">
-        <v>0.03</v>
-      </c>
-      <c r="C37" s="2">
-        <v>45155</v>
+        <v>0.7503849573002472</v>
+      </c>
+      <c r="C37">
+        <v>0.338</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ВЛ31</t>
+        </is>
+      </c>
+      <c r="E37" s="2">
+        <v>42954.75</v>
+      </c>
+      <c r="F37">
+        <v>1.288461538461538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.1633934</v>
+        <v>2.33902196870483</v>
       </c>
       <c r="B38">
-        <v>0.05</v>
-      </c>
-      <c r="C38" s="2">
-        <v>45156</v>
+        <v>2.652974380028279</v>
+      </c>
+      <c r="C38">
+        <v>0.2332444444444444</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ВЛ32</t>
+        </is>
+      </c>
+      <c r="E38" s="2">
+        <v>42956.70833333333</v>
+      </c>
+      <c r="F38">
+        <v>1.103658536585366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1.0180884</v>
+        <v>2.316750527871535</v>
       </c>
       <c r="B39">
-        <v>0.05</v>
-      </c>
-      <c r="C39" s="2">
-        <v>45158</v>
+        <v>1.224241995699098</v>
+      </c>
+      <c r="C39">
+        <v>0.4380444444444445</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ВЛ33</t>
+        </is>
+      </c>
+      <c r="E39" s="2">
+        <v>42957.70833333333</v>
+      </c>
+      <c r="F39">
+        <v>1.292207792207792</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.0016926</v>
+        <v>1.724478376766043</v>
       </c>
       <c r="B40">
-        <v>0.06</v>
-      </c>
-      <c r="C40" s="2">
-        <v>45159</v>
+        <v>0.3762105670589793</v>
+      </c>
+      <c r="C40">
+        <v>0.2204444444444445</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ВЛ34</t>
+        </is>
+      </c>
+      <c r="E40" s="2">
+        <v>42958.75</v>
+      </c>
+      <c r="F40">
+        <v>1.125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1.0046206</v>
+        <v>1.665851114204333</v>
       </c>
       <c r="B41">
-        <v>0.02</v>
-      </c>
-      <c r="C41" s="2">
-        <v>45161</v>
+        <v>0.3849515344140993</v>
+      </c>
+      <c r="C41">
+        <v>0.09677777777777778</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ВЛ35</t>
+        </is>
+      </c>
+      <c r="E41" s="2">
+        <v>42960.79166666667</v>
+      </c>
+      <c r="F41">
+        <v>1.225746268656717</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1.0046206</v>
+        <v>1.725105119999996</v>
       </c>
       <c r="B42">
-        <v>0.04</v>
-      </c>
-      <c r="C42" s="2">
-        <v>45161</v>
+        <v>0.5529570269493641</v>
+      </c>
+      <c r="C42">
+        <v>0.1137777777777778</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ВЛ36</t>
+        </is>
+      </c>
+      <c r="E42" s="2">
+        <v>42963.75</v>
+      </c>
+      <c r="F42">
+        <v>1.2875</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.9542339</v>
+        <v>2.070543360000004</v>
       </c>
       <c r="B43">
+        <v>0.8970762953698331</v>
+      </c>
+      <c r="C43">
+        <v>0.1450666666666667</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ВЛ37</t>
+        </is>
+      </c>
+      <c r="E43" s="2">
+        <v>42965.70833333333</v>
+      </c>
+      <c r="F43">
+        <v>1.193627450980392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>1.868013759999992</v>
+      </c>
+      <c r="B44">
+        <v>0.5420276831196029</v>
+      </c>
+      <c r="C44">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ВЛ38</t>
+        </is>
+      </c>
+      <c r="E44" s="2">
+        <v>42967.54166666667</v>
+      </c>
+      <c r="F44">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>2.533575839999991</v>
+      </c>
+      <c r="B45">
+        <v>2.460182198774176</v>
+      </c>
+      <c r="C45">
+        <v>1.717333333333333</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ВЛ39</t>
+        </is>
+      </c>
+      <c r="E45" s="2">
+        <v>42970.70833333333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>4.2</v>
+      </c>
+      <c r="B46">
+        <v>0.1707706266807512</v>
+      </c>
+      <c r="C46">
+        <v>0.03</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" s="2">
+        <v>45149.70833333333</v>
+      </c>
+      <c r="F46">
+        <v>0.25</v>
+      </c>
+      <c r="G46">
+        <v>0.06</v>
+      </c>
+      <c r="H46">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>5.54</v>
+      </c>
+      <c r="B47">
+        <v>0.09467772356813979</v>
+      </c>
+      <c r="C47">
         <v>0.02</v>
       </c>
-      <c r="C43" s="2">
-        <v>45163</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E47" s="2">
+        <v>45150.70833333333</v>
+      </c>
+      <c r="F47">
+        <v>2.15</v>
+      </c>
+      <c r="G47">
+        <v>0.01</v>
+      </c>
+      <c r="H47">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>5.07</v>
+      </c>
+      <c r="B48">
+        <v>0.4502690603055724</v>
+      </c>
+      <c r="C48">
+        <v>0.05</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E48" s="2">
+        <v>45152.45833333333</v>
+      </c>
+      <c r="F48">
+        <v>0.7</v>
+      </c>
+      <c r="G48">
+        <v>0.05</v>
+      </c>
+      <c r="H48">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>3.64</v>
+      </c>
+      <c r="B49">
+        <v>0.3389631091610371</v>
+      </c>
+      <c r="C49">
+        <v>0.03</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E49" s="2">
+        <v>45155.54166666667</v>
+      </c>
+      <c r="F49">
+        <v>2.55</v>
+      </c>
+      <c r="G49">
+        <v>0.04</v>
+      </c>
+      <c r="H49">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>2.64</v>
+      </c>
+      <c r="B50">
+        <v>0.1537158480153606</v>
+      </c>
+      <c r="C50">
+        <v>0.05</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E50" s="2">
+        <v>45156.45833333333</v>
+      </c>
+      <c r="F50">
+        <v>2.41</v>
+      </c>
+      <c r="G50">
+        <v>0.02</v>
+      </c>
+      <c r="H50">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51">
+        <v>0.1188924679384608</v>
+      </c>
+      <c r="C51">
+        <v>0.05</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E51" s="2">
+        <v>45158.66666666667</v>
+      </c>
+      <c r="F51">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>2.58</v>
+      </c>
+      <c r="B52">
+        <v>0.4499496571174798</v>
+      </c>
+      <c r="C52">
+        <v>0.06</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E52" s="2">
+        <v>45159.54166666667</v>
+      </c>
+      <c r="F52">
+        <v>7.62</v>
+      </c>
+      <c r="G52">
+        <v>0.01</v>
+      </c>
+      <c r="H52">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.82</v>
+      </c>
+      <c r="B53">
+        <v>0.01760223467791889</v>
+      </c>
+      <c r="C53">
+        <v>0.02</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E53" s="2">
+        <v>45161.375</v>
+      </c>
+      <c r="F53">
+        <v>2.36</v>
+      </c>
+      <c r="G53">
+        <v>0.01</v>
+      </c>
+      <c r="H53">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1.08</v>
+      </c>
+      <c r="B54">
+        <v>0.05089497193103252</v>
+      </c>
+      <c r="C54">
+        <v>0.04</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E54" s="2">
+        <v>45161.75</v>
+      </c>
+      <c r="F54">
+        <v>1.91</v>
+      </c>
+      <c r="G54">
+        <v>0.01</v>
+      </c>
+      <c r="H54">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1.03</v>
+      </c>
+      <c r="B55">
+        <v>0.02497426506616619</v>
+      </c>
+      <c r="C55">
+        <v>0.02</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E55" s="2">
+        <v>45163.45833333333</v>
+      </c>
+      <c r="F55">
+        <v>1.21</v>
+      </c>
+      <c r="G55">
+        <v>0.01</v>
+      </c>
+      <c r="H55">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>
